--- a/digitales-herbarium/Pflanze.xlsx
+++ b/digitales-herbarium/Pflanze.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannes Kainz\Desktop\digitales-herbarium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannes Kainz\Documents\GitHub\home-info\digitales-herbarium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ECB85F-7153-4142-83F0-BDEF0B58A1D5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9137C6C-28D9-49F0-8E9E-2BB31BCC737F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9F5CBAE6-D443-4358-BCC2-C3D4A52E5D2A}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="B1:B6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +578,7 @@
         <v>&lt;body style='font-size:1.3em; line-height:150%' marginwidth='50' marginheight='20' bgcolor='#F3E2AA'&gt;&lt;/body&gt;&lt;/head&gt;&lt;body&gt;&lt;div align='center'&gt;&lt;a href='../index.html'&gt;&lt;img src='../haus.svg' height='6%'/&gt;&lt;/a&gt;&lt;hr /&gt;</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="str">
         <f>"&lt;h2&gt;&lt;i&gt;"&amp;Eingabe!B1&amp;"&lt;/i&gt;&lt;/h2&gt;&lt;hr /&gt;&lt;p&gt;&lt;b&gt;Deutscher Name:&lt;/b&gt;&lt;br /&gt;"&amp;Eingabe!B2&amp;"&lt;/p&gt;&lt;p&gt;&lt;b&gt;Familie:&lt;/b&gt;&lt;br /&gt;"&amp;Eingabe!B3&amp;"&lt;/p&gt;&lt;p&gt;&lt;b&gt;Blütenformel:&lt;/b&gt;&lt;br&gt;"&amp;Eingabe!B4&amp;"&lt;/p&gt;&lt;br /&gt;"</f>
         <v>&lt;h2&gt;&lt;i&gt;&lt;/i&gt;&lt;/h2&gt;&lt;hr /&gt;&lt;p&gt;&lt;b&gt;Deutscher Name:&lt;/b&gt;&lt;br /&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Familie:&lt;/b&gt;&lt;br /&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Blütenformel:&lt;/b&gt;&lt;br&gt;&lt;/p&gt;&lt;br /&gt;</v>
@@ -586,8 +586,8 @@
     </row>
     <row r="6" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="str">
-        <f>"&lt;script&gt;for(i=1;i&lt;"&amp;Eingabe!B5+1&amp;";i++){document.writeln("&amp;CHAR(34)&amp;"&lt;a href='"&amp;CHAR(34)&amp;"+i+"&amp;CHAR(34)&amp;".JPG'&gt;&lt;img src='"&amp;CHAR(34)&amp;"+i+"&amp;CHAR(34)&amp;".JPG' height='200' alt='Bild "&amp;CHAR(34)&amp;"+i+"&amp;CHAR(34)&amp;"'&gt;&lt;/a&gt;&amp;nbsp;"&amp;CHAR(34)&amp;");}&lt;/script&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;"</f>
-        <v>&lt;script&gt;for(i=1;i&lt;1;i++){document.writeln("&lt;a href='"+i+".JPG'&gt;&lt;img src='"+i+".JPG' height='200' alt='Bild "+i+"'&gt;&lt;/a&gt;&amp;nbsp;");}&lt;/script&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</v>
+        <f>"&lt;script&gt;for(i=1;i&lt;"&amp;Eingabe!B5+1&amp;";i++){document.writeln("&amp;CHAR(34)&amp;"&lt;a href='"&amp;CHAR(34)&amp;"+i+"&amp;CHAR(34)&amp;".JPG'&gt;&lt;img src='tn"&amp;CHAR(34)&amp;"+i+"&amp;CHAR(34)&amp;".JPG' height='200' alt='Bild "&amp;CHAR(34)&amp;"+i+"&amp;CHAR(34)&amp;"'&gt;&lt;/a&gt;&amp;nbsp;"&amp;CHAR(34)&amp;");}&lt;/script&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;"</f>
+        <v>&lt;script&gt;for(i=1;i&lt;1;i++){document.writeln("&lt;a href='"+i+".JPG'&gt;&lt;img src='tn"+i+".JPG' height='200' alt='Bild "+i+"'&gt;&lt;/a&gt;&amp;nbsp;");}&lt;/script&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/digitales-herbarium/Pflanze.xlsx
+++ b/digitales-herbarium/Pflanze.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannes Kainz\Documents\GitHub\home-info\digitales-herbarium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9137C6C-28D9-49F0-8E9E-2BB31BCC737F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6F35A6-6196-48B8-8A0C-6BCB2E6450E9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9F5CBAE6-D443-4358-BCC2-C3D4A52E5D2A}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="B1:B6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,8 +586,8 @@
     </row>
     <row r="6" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="str">
-        <f>"&lt;script&gt;for(i=1;i&lt;"&amp;Eingabe!B5+1&amp;";i++){document.writeln("&amp;CHAR(34)&amp;"&lt;a href='"&amp;CHAR(34)&amp;"+i+"&amp;CHAR(34)&amp;".JPG'&gt;&lt;img src='tn"&amp;CHAR(34)&amp;"+i+"&amp;CHAR(34)&amp;".JPG' height='200' alt='Bild "&amp;CHAR(34)&amp;"+i+"&amp;CHAR(34)&amp;"'&gt;&lt;/a&gt;&amp;nbsp;"&amp;CHAR(34)&amp;");}&lt;/script&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;"</f>
-        <v>&lt;script&gt;for(i=1;i&lt;1;i++){document.writeln("&lt;a href='"+i+".JPG'&gt;&lt;img src='tn"+i+".JPG' height='200' alt='Bild "+i+"'&gt;&lt;/a&gt;&amp;nbsp;");}&lt;/script&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</v>
+        <f>"&lt;script&gt;for(i=1;i&lt;"&amp;Eingabe!B5+1&amp;";i++){document.writeln("&amp;CHAR(34)&amp;"&lt;a href='"&amp;CHAR(34)&amp;"+i+"&amp;CHAR(34)&amp;".JPG'&gt;&lt;img src='tn"&amp;CHAR(34)&amp;"+i+"&amp;CHAR(34)&amp;".jpg' height='200' alt='Bild "&amp;CHAR(34)&amp;"+i+"&amp;CHAR(34)&amp;"'&gt;&lt;/a&gt;&amp;nbsp;"&amp;CHAR(34)&amp;");}&lt;/script&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;"</f>
+        <v>&lt;script&gt;for(i=1;i&lt;1;i++){document.writeln("&lt;a href='"+i+".JPG'&gt;&lt;img src='tn"+i+".jpg' height='200' alt='Bild "+i+"'&gt;&lt;/a&gt;&amp;nbsp;");}&lt;/script&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</v>
       </c>
     </row>
   </sheetData>
